--- a/templates/SYDATA.xlsx
+++ b/templates/SYDATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Automation_1Updated\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C78392-A4AD-43EE-9C3D-10ADE09B84F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA72D96-4305-4C71-915C-E324BA66DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20460" windowHeight="10890" tabRatio="761" firstSheet="17" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="761" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,8 @@
     <sheet name="TransferInvoice" sheetId="23" r:id="rId21"/>
     <sheet name="ApproveInvoiceBatch" sheetId="24" r:id="rId22"/>
     <sheet name="Picklist" sheetId="26" r:id="rId23"/>
-    <sheet name="PackingSlip" sheetId="27" r:id="rId24"/>
+    <sheet name="ReversePickPackShip" sheetId="29" r:id="rId24"/>
+    <sheet name="PackingSlip" sheetId="27" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>API Mode</t>
   </si>
@@ -225,6 +226,9 @@
   </si>
   <si>
     <t>Create Packing Slip Detail</t>
+  </si>
+  <si>
+    <t>Sales Order Pick-Pack-Ship Reversal</t>
   </si>
 </sst>
 </file>
@@ -675,7 +679,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,10 +1437,47 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C832B1A6-DC41-45F8-8125-A7E0A6225625}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C0AA7F-8A02-4F74-AD69-BE20ED32EE5E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
